--- a/data/testcase.xlsx
+++ b/data/testcase.xlsx
@@ -42,17 +42,15 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -67,21 +65,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,41 +86,17 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,7 +118,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -171,6 +132,29 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -179,8 +163,24 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -200,187 +200,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,17 +418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,26 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -483,6 +463,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -492,17 +496,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +514,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="13" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="22" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -526,133 +526,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="19" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="21" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="16" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="17" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="30" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="N9" s="0" t="inlineStr">
         <is>
-          <t>$.model.data[-1:].trade=${last_price};</t>
+          <t>$.resultCode=0000;</t>
         </is>
       </c>
       <c r="O9" s="0" t="inlineStr"/>

--- a/data/testcase.xlsx
+++ b/data/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="248" visibility="visible" windowHeight="9564" windowWidth="18468"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="248" visibility="visible" windowHeight="11424" windowWidth="20592" xWindow="0" yWindow="408"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="22">
+  <fonts count="6">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -42,14 +42,14 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -57,135 +57,12 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -194,198 +71,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -408,255 +99,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="22" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="17" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="21" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="16" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,57 +137,12 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1023,6 +427,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1034,26 +439,26 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="9.66666666666667"/>
-    <col customWidth="1" max="2" min="2" style="2" width="14.8888888888889"/>
-    <col customWidth="1" max="3" min="3" style="2" width="10.6666666666667"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9.6640625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="14.88671875"/>
+    <col customWidth="1" max="3" min="3" style="2" width="10.6640625"/>
     <col customWidth="1" max="4" min="4" style="2" width="56"/>
-    <col customWidth="1" max="5" min="5" style="2" width="41.8888888888889"/>
-    <col customWidth="1" max="6" min="6" style="3" width="72.1111111111111"/>
-    <col customWidth="1" max="8" min="8" style="4" width="43.7777777777778"/>
-    <col customWidth="1" max="9" min="9" style="2" width="19.3333333333333"/>
-    <col customWidth="1" max="10" min="10" style="2" width="105.444444444444"/>
-    <col customWidth="1" max="11" min="11" style="2" width="11.8888888888889"/>
-    <col customWidth="1" max="12" min="12" style="2" width="46.7777777777778"/>
-    <col customWidth="1" max="13" min="13" style="2" width="72.1111111111111"/>
+    <col customWidth="1" max="5" min="5" style="2" width="41.88671875"/>
+    <col customWidth="1" max="6" min="6" style="3" width="72.109375"/>
+    <col customWidth="1" max="8" min="8" style="4" width="43.77734375"/>
+    <col customWidth="1" max="9" min="9" style="2" width="19.33203125"/>
+    <col customWidth="1" max="10" min="10" style="2" width="105.44140625"/>
+    <col customWidth="1" max="11" min="11" style="2" width="11.88671875"/>
+    <col customWidth="1" max="12" min="12" style="2" width="46.77734375"/>
+    <col customWidth="1" max="13" min="13" style="2" width="72.109375"/>
     <col customWidth="1" max="14" min="14" style="2" width="61"/>
-    <col customWidth="1" max="15" min="15" style="2" width="59.8888888888889"/>
+    <col customWidth="1" max="15" min="15" style="2" width="59.88671875"/>
     <col customWidth="1" max="16" min="16" style="2" width="10"/>
   </cols>
   <sheetData>
@@ -1274,7 +679,7 @@
           <t>token=$.model.token;userid=$.model.appUser.id</t>
         </is>
       </c>
-      <c r="N3" s="0" t="inlineStr">
+      <c r="N3" s="11" t="inlineStr">
         <is>
           <t>$.resultCode=0000;</t>
         </is>
@@ -1330,17 +735,17 @@
           <t>{"id": ${userid}}</t>
         </is>
       </c>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>$.resultCode=0000;</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr"/>
-      <c r="P4" s="0" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="N4" s="11" t="inlineStr">
+        <is>
+          <t>$.resultCode=0001;</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>{"success":true,"resultCode":"0000","message":null,"model":{"id":4350,"userName":"17620016080","nickName":"无所不知无所不晓小白","password":null,"mobile":null,"email":null,"phone":null,"sex":null,"avatar":"https://static.jiangjuncj.com/app/user/avatar/81daf6438b214bcbba0e098a377d2cd7.png","signature":"小虫啃包菜，天天有福袋","wxBindid":"oUINg1rT_MAumN94Ln3B31U9jmNE","userType":null,"typeCode":null,"typeName":null,"pwdSecurityLevel":null,"pwdUpdateDate":null,"pwdBefore":null,"pwdQuestion":null,"pwdAnswer":null,"pwdQuestionTwo":null,"pwdAnswerTwo":null,"pwdQuestionThree":null,"status":null,"createTime":null,"updateTime":null,"remark":null,"pwdAnswerThree":null,"userWeight":null,"userProperty":1,"symbolId":2,"symbolName":"空白V","symbolPath":"http://static.jiangjuncj.com/app/user/avatar/jjcj_20190621161920507.png","invitationCode":null,"infoCommentRight":null,"videoCommentRight":null,"qqBindid":"2C861B0CFD9E0BB78FC552119930EFB4","wbBindid":null,"openid":null,"bingType":null,"chatSig":null,"privateChat":0,"groupNum":0,"createGroup":0,"badgeList":null},"query":null}</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr"/>
     </row>
     <row customHeight="1" ht="28.8" r="5" s="2">
       <c r="A5" s="0" t="n"/>
